--- a/Data/ScriptData/OC_ArchitectBlueprintingData_Templage2.xlsx
+++ b/Data/ScriptData/OC_ArchitectBlueprintingData_Templage2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Omnicell_Blueprinting_Tool\Data\ScriptData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Omnicell\Workspace\winApps\OmnicellBlueprintingTool\Data\ScriptData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754D3DF7-E13C-4E4D-BC42-BB2E979C8273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0799438-903B-4EAD-9EDE-BA26AA6204D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24240" yWindow="420" windowWidth="23535" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5010" yWindow="6390" windowWidth="23535" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VisioData" sheetId="1" r:id="rId1"/>
@@ -230,7 +230,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="270">
   <si>
     <t>Shape</t>
   </si>
@@ -1085,6 +1085,12 @@
   </si>
   <si>
     <t>Disabled</t>
+  </si>
+  <si>
+    <t>OC_Logo:7</t>
+  </si>
+  <si>
+    <t>Network</t>
   </si>
 </sst>
 </file>
@@ -2257,11 +2263,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ56"/>
+  <dimension ref="A1:AJ57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W8" sqref="W8"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2658,7 +2664,7 @@
       <c r="AI6" s="34"/>
       <c r="AJ6" s="34"/>
     </row>
-    <row r="7" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>1</v>
       </c>
@@ -2666,14 +2672,12 @@
         <v>0</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>204</v>
+        <v>268</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>78</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
@@ -2688,10 +2692,10 @@
       <c r="Q7" s="14"/>
       <c r="R7" s="16"/>
       <c r="S7" s="15">
-        <v>3.125</v>
+        <v>0.25</v>
       </c>
       <c r="T7" s="15">
-        <v>10.67</v>
+        <v>10.75</v>
       </c>
       <c r="U7" s="15">
         <v>0</v>
@@ -2714,7 +2718,7 @@
       <c r="AI7" s="16"/>
       <c r="AJ7" s="16"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>1</v>
       </c>
@@ -2722,13 +2726,13 @@
         <v>0</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
@@ -2744,19 +2748,19 @@
       <c r="Q8" s="14"/>
       <c r="R8" s="16"/>
       <c r="S8" s="15">
-        <v>0.25</v>
+        <v>3.125</v>
       </c>
       <c r="T8" s="15">
-        <v>9.4049999999999994</v>
+        <v>10.75</v>
       </c>
       <c r="U8" s="15">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="V8" s="15">
-        <v>6.5</v>
-      </c>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
       <c r="Y8" s="13"/>
       <c r="Z8" s="16"/>
       <c r="AA8" s="16"/>
@@ -2778,12 +2782,14 @@
         <v>0</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="13"/>
+        <v>83</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>1</v>
+      </c>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
@@ -2798,16 +2804,16 @@
       <c r="Q9" s="14"/>
       <c r="R9" s="16"/>
       <c r="S9" s="15">
-        <v>3</v>
+        <v>0.25</v>
       </c>
       <c r="T9" s="15">
-        <v>1.5309999999999999</v>
+        <v>9.4049999999999994</v>
       </c>
       <c r="U9" s="15">
-        <v>7</v>
+        <v>1.875</v>
       </c>
       <c r="V9" s="15">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
@@ -2825,106 +2831,102 @@
       <c r="AJ9" s="16"/>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="16">
+        <v>1</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="15">
+        <v>3.125</v>
+      </c>
+      <c r="T10" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="U10" s="15">
+        <v>7</v>
+      </c>
+      <c r="V10" s="15">
+        <v>0</v>
+      </c>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="16"/>
+      <c r="AG10" s="16"/>
+      <c r="AH10" s="16"/>
+      <c r="AI10" s="16"/>
+      <c r="AJ10" s="16"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B11" s="32" t="s">
         <v>267</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="35"/>
-      <c r="Y10" s="32"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="34"/>
-      <c r="AC10" s="34"/>
-      <c r="AD10" s="34"/>
-      <c r="AE10" s="34"/>
-      <c r="AF10" s="34"/>
-      <c r="AG10" s="34"/>
-      <c r="AH10" s="34"/>
-      <c r="AI10" s="34"/>
-      <c r="AJ10" s="34"/>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
-        <v>1</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="T11" s="15">
-        <v>9.125</v>
-      </c>
-      <c r="U11" s="15">
-        <v>0</v>
-      </c>
-      <c r="V11" s="15">
-        <v>0</v>
-      </c>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="16"/>
-      <c r="AD11" s="16"/>
-      <c r="AE11" s="16"/>
-      <c r="AF11" s="16"/>
-      <c r="AG11" s="16"/>
-      <c r="AH11" s="16"/>
-      <c r="AI11" s="16"/>
-      <c r="AJ11" s="16"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="34"/>
+      <c r="AH11" s="34"/>
+      <c r="AI11" s="34"/>
+      <c r="AJ11" s="34"/>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
@@ -2934,16 +2936,20 @@
         <v>0</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+        <v>262</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>115</v>
+      </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
@@ -2954,15 +2960,12 @@
       <c r="O12" s="13"/>
       <c r="P12" s="14"/>
       <c r="Q12" s="14"/>
-      <c r="R12" s="16">
-        <f>SUM(R16:R23)</f>
-        <v>194</v>
-      </c>
+      <c r="R12" s="16"/>
       <c r="S12" s="15">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="T12" s="15">
-        <v>8.2390000000000008</v>
+        <v>9.125</v>
       </c>
       <c r="U12" s="15">
         <v>0</v>
@@ -2970,8 +2973,8 @@
       <c r="V12" s="15">
         <v>0</v>
       </c>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
       <c r="Y12" s="13"/>
       <c r="Z12" s="16"/>
       <c r="AA12" s="16"/>
@@ -2986,140 +2989,133 @@
       <c r="AJ12" s="16"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="A13" s="16">
         <v>1</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="16">
+        <f>SUM(R17:R24)</f>
+        <v>194</v>
+      </c>
+      <c r="S13" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T13" s="15">
+        <v>8.2390000000000008</v>
+      </c>
+      <c r="U13" s="15">
+        <v>0</v>
+      </c>
+      <c r="V13" s="15">
+        <v>0</v>
+      </c>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="16"/>
+      <c r="AG13" s="16"/>
+      <c r="AH13" s="16"/>
+      <c r="AI13" s="16"/>
+      <c r="AJ13" s="16"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>1</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D14" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E14" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10" t="s">
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K14" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="27">
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="27">
         <v>1.9079999999999999</v>
       </c>
-      <c r="T13" s="27">
+      <c r="T14" s="27">
         <v>8.2390000000000008</v>
       </c>
-      <c r="U13" s="27">
-        <v>0</v>
-      </c>
-      <c r="V13" s="27">
-        <v>0</v>
-      </c>
-      <c r="W13" s="27"/>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="10" t="s">
+      <c r="U14" s="27">
+        <v>0</v>
+      </c>
+      <c r="V14" s="27">
+        <v>0</v>
+      </c>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11" t="s">
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="AB13" s="11" t="s">
+      <c r="AB14" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AC13" s="11" t="s">
+      <c r="AC14" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AD13" s="11"/>
-      <c r="AE13" s="11"/>
-      <c r="AF13" s="11"/>
-      <c r="AG13" s="11"/>
-      <c r="AH13" s="11"/>
-      <c r="AI13" s="11"/>
-      <c r="AJ13" s="11"/>
-    </row>
-    <row r="14" spans="1:36" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="58">
-        <v>1</v>
-      </c>
-      <c r="B14" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="59" t="s">
-        <v>207</v>
-      </c>
-      <c r="D14" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="60"/>
-      <c r="Q14" s="60"/>
-      <c r="R14" s="58">
-        <v>1</v>
-      </c>
-      <c r="S14" s="61">
-        <v>2.1869999999999998</v>
-      </c>
-      <c r="T14" s="61">
-        <v>7.5</v>
-      </c>
-      <c r="U14" s="61">
-        <v>0</v>
-      </c>
-      <c r="V14" s="61">
-        <v>0</v>
-      </c>
-      <c r="W14" s="58"/>
-      <c r="X14" s="58"/>
-      <c r="Y14" s="59" t="s">
-        <v>201</v>
-      </c>
-      <c r="Z14" s="58"/>
-      <c r="AA14" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB14" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC14" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD14" s="58"/>
-      <c r="AE14" s="58"/>
-      <c r="AF14" s="58"/>
-      <c r="AG14" s="58"/>
-      <c r="AH14" s="58"/>
-      <c r="AI14" s="58"/>
-      <c r="AJ14" s="58"/>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="11"/>
+      <c r="AJ14" s="11"/>
+    </row>
+    <row r="15" spans="1:36" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="58">
         <v>1</v>
       </c>
@@ -3127,13 +3123,13 @@
         <v>0</v>
       </c>
       <c r="C15" s="59" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D15" s="59" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E15" s="59" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F15" s="59"/>
       <c r="G15" s="59"/>
@@ -3151,10 +3147,10 @@
         <v>1</v>
       </c>
       <c r="S15" s="61">
-        <v>2.25</v>
+        <v>2.1869999999999998</v>
       </c>
       <c r="T15" s="61">
-        <v>6.75</v>
+        <v>7.5</v>
       </c>
       <c r="U15" s="61">
         <v>0</v>
@@ -3162,8 +3158,8 @@
       <c r="V15" s="61">
         <v>0</v>
       </c>
-      <c r="W15" s="61"/>
-      <c r="X15" s="61"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="58"/>
       <c r="Y15" s="59" t="s">
         <v>201</v>
       </c>
@@ -3186,72 +3182,70 @@
       <c r="AJ15" s="58"/>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
+      <c r="A16" s="58">
         <v>1</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="24">
-        <v>118</v>
-      </c>
-      <c r="S16" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="T16" s="23">
-        <v>5.4370000000000003</v>
-      </c>
-      <c r="U16" s="23">
-        <v>0</v>
-      </c>
-      <c r="V16" s="23">
-        <v>0</v>
-      </c>
-      <c r="W16" s="24"/>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="36"/>
-      <c r="Z16" s="24"/>
-      <c r="AA16" s="24"/>
-      <c r="AB16" s="24"/>
-      <c r="AC16" s="24"/>
-      <c r="AD16" s="24"/>
-      <c r="AE16" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="AF16" s="24"/>
-      <c r="AG16" s="24" t="s">
+      <c r="B16" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>208</v>
+      </c>
+      <c r="D16" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="58">
+        <v>1</v>
+      </c>
+      <c r="S16" s="61">
+        <v>2.25</v>
+      </c>
+      <c r="T16" s="61">
+        <v>6.75</v>
+      </c>
+      <c r="U16" s="61">
+        <v>0</v>
+      </c>
+      <c r="V16" s="61">
+        <v>0</v>
+      </c>
+      <c r="W16" s="61"/>
+      <c r="X16" s="61"/>
+      <c r="Y16" s="59" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z16" s="58"/>
+      <c r="AA16" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="AH16" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI16" s="24" t="s">
+      <c r="AB16" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC16" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="AJ16" s="24"/>
+      <c r="AD16" s="58"/>
+      <c r="AE16" s="58"/>
+      <c r="AF16" s="58"/>
+      <c r="AG16" s="58"/>
+      <c r="AH16" s="58"/>
+      <c r="AI16" s="58"/>
+      <c r="AJ16" s="58"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
@@ -3261,13 +3255,13 @@
         <v>0</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>88</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F17" s="21" t="s">
         <v>171</v>
@@ -3284,13 +3278,13 @@
       <c r="P17" s="22"/>
       <c r="Q17" s="22"/>
       <c r="R17" s="24">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="S17" s="23">
         <v>0.625</v>
       </c>
       <c r="T17" s="23">
-        <v>4.8680000000000003</v>
+        <v>5.4370000000000003</v>
       </c>
       <c r="U17" s="23">
         <v>0</v>
@@ -3321,7 +3315,7 @@
       </c>
       <c r="AJ17" s="24"/>
     </row>
-    <row r="18" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>1</v>
       </c>
@@ -3329,13 +3323,13 @@
         <v>0</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D18" s="21" t="s">
         <v>88</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F18" s="21" t="s">
         <v>171</v>
@@ -3352,13 +3346,13 @@
       <c r="P18" s="22"/>
       <c r="Q18" s="22"/>
       <c r="R18" s="24">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="S18" s="23">
         <v>0.625</v>
       </c>
       <c r="T18" s="23">
-        <v>4.25</v>
+        <v>4.8680000000000003</v>
       </c>
       <c r="U18" s="23">
         <v>0</v>
@@ -3389,7 +3383,7 @@
       </c>
       <c r="AJ18" s="24"/>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>1</v>
       </c>
@@ -3397,13 +3391,13 @@
         <v>0</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>88</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F19" s="21" t="s">
         <v>171</v>
@@ -3420,13 +3414,13 @@
       <c r="P19" s="22"/>
       <c r="Q19" s="22"/>
       <c r="R19" s="24">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="S19" s="23">
         <v>0.625</v>
       </c>
       <c r="T19" s="23">
-        <v>3.645</v>
+        <v>4.25</v>
       </c>
       <c r="U19" s="23">
         <v>0</v>
@@ -3465,13 +3459,13 @@
         <v>0</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D20" s="21" t="s">
         <v>88</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F20" s="21" t="s">
         <v>171</v>
@@ -3491,10 +3485,10 @@
         <v>1</v>
       </c>
       <c r="S20" s="23">
-        <v>2.1150000000000002</v>
+        <v>0.625</v>
       </c>
       <c r="T20" s="23">
-        <v>5.4370000000000003</v>
+        <v>3.645</v>
       </c>
       <c r="U20" s="23">
         <v>0</v>
@@ -3533,13 +3527,13 @@
         <v>0</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>88</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F21" s="21" t="s">
         <v>171</v>
@@ -3559,10 +3553,10 @@
         <v>1</v>
       </c>
       <c r="S21" s="23">
-        <v>2.1150000000000002</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="T21" s="23">
-        <v>4.875</v>
+        <v>5.4370000000000003</v>
       </c>
       <c r="U21" s="23">
         <v>0</v>
@@ -3601,13 +3595,13 @@
         <v>0</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D22" s="21" t="s">
         <v>88</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F22" s="21" t="s">
         <v>171</v>
@@ -3627,10 +3621,10 @@
         <v>1</v>
       </c>
       <c r="S22" s="23">
-        <v>2.1150000000000002</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="T22" s="23">
-        <v>4.2460000000000004</v>
+        <v>4.875</v>
       </c>
       <c r="U22" s="23">
         <v>0</v>
@@ -3661,7 +3655,7 @@
       </c>
       <c r="AJ22" s="24"/>
     </row>
-    <row r="23" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <v>1</v>
       </c>
@@ -3669,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D23" s="21" t="s">
         <v>88</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F23" s="21" t="s">
         <v>171</v>
@@ -3692,13 +3686,13 @@
       <c r="P23" s="22"/>
       <c r="Q23" s="22"/>
       <c r="R23" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S23" s="23">
-        <v>2.1150000000000002</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="T23" s="23">
-        <v>3.6480000000000001</v>
+        <v>4.2460000000000004</v>
       </c>
       <c r="U23" s="23">
         <v>0</v>
@@ -3729,71 +3723,73 @@
       </c>
       <c r="AJ23" s="24"/>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
+    <row r="24" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="24">
         <v>1</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="11">
+      <c r="B24" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="24">
         <v>2</v>
       </c>
-      <c r="S24" s="27">
-        <v>0.56200000000000006</v>
-      </c>
-      <c r="T24" s="27">
-        <v>7.625</v>
-      </c>
-      <c r="U24" s="27">
-        <v>0</v>
-      </c>
-      <c r="V24" s="27">
-        <v>0</v>
-      </c>
-      <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="10"/>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="11"/>
-      <c r="AB24" s="11"/>
-      <c r="AC24" s="11"/>
-      <c r="AD24" s="11"/>
-      <c r="AE24" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="AF24" s="11"/>
-      <c r="AG24" s="11" t="s">
+      <c r="S24" s="23">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="T24" s="23">
+        <v>3.6480000000000001</v>
+      </c>
+      <c r="U24" s="23">
+        <v>0</v>
+      </c>
+      <c r="V24" s="23">
+        <v>0</v>
+      </c>
+      <c r="W24" s="24"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="36"/>
+      <c r="Z24" s="24"/>
+      <c r="AA24" s="24"/>
+      <c r="AB24" s="24"/>
+      <c r="AC24" s="24"/>
+      <c r="AD24" s="24"/>
+      <c r="AE24" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="AF24" s="24"/>
+      <c r="AG24" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="AH24" s="11" t="s">
+      <c r="AH24" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="AI24" s="11" t="s">
+      <c r="AI24" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="AJ24" s="11"/>
+      <c r="AJ24" s="24"/>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
@@ -3803,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
@@ -3827,10 +3823,10 @@
         <v>2</v>
       </c>
       <c r="S25" s="27">
-        <v>0.375</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="T25" s="27">
-        <v>6.9880000000000004</v>
+        <v>7.625</v>
       </c>
       <c r="U25" s="27">
         <v>0</v>
@@ -3869,13 +3865,13 @@
         <v>0</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
@@ -3893,10 +3889,10 @@
         <v>2</v>
       </c>
       <c r="S26" s="27">
-        <v>1.2450000000000001</v>
+        <v>0.375</v>
       </c>
       <c r="T26" s="27">
-        <v>7.5</v>
+        <v>6.9880000000000004</v>
       </c>
       <c r="U26" s="27">
         <v>0</v>
@@ -3935,13 +3931,13 @@
         <v>0</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
@@ -3956,13 +3952,13 @@
       <c r="P27" s="26"/>
       <c r="Q27" s="26"/>
       <c r="R27" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S27" s="27">
-        <v>1.625</v>
+        <v>1.2450000000000001</v>
       </c>
       <c r="T27" s="27">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U27" s="27">
         <v>0</v>
@@ -4001,13 +3997,13 @@
         <v>0</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -4021,12 +4017,14 @@
       <c r="O28" s="10"/>
       <c r="P28" s="26"/>
       <c r="Q28" s="26"/>
-      <c r="R28" s="11"/>
+      <c r="R28" s="11">
+        <v>1</v>
+      </c>
       <c r="S28" s="27">
-        <v>0.84799999999999998</v>
+        <v>1.625</v>
       </c>
       <c r="T28" s="27">
-        <v>6.3879999999999999</v>
+        <v>7</v>
       </c>
       <c r="U28" s="27">
         <v>0</v>
@@ -4042,8 +4040,8 @@
       <c r="AB28" s="11"/>
       <c r="AC28" s="11"/>
       <c r="AD28" s="11"/>
-      <c r="AE28" s="11" t="s">
-        <v>222</v>
+      <c r="AE28" s="10" t="s">
+        <v>221</v>
       </c>
       <c r="AF28" s="11"/>
       <c r="AG28" s="11" t="s">
@@ -4057,7 +4055,7 @@
       </c>
       <c r="AJ28" s="11"/>
     </row>
-    <row r="29" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>1</v>
       </c>
@@ -4065,13 +4063,13 @@
         <v>0</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>261</v>
+        <v>10</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
@@ -4087,155 +4085,165 @@
       <c r="Q29" s="26"/>
       <c r="R29" s="11"/>
       <c r="S29" s="27">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="T29" s="27">
+        <v>6.3879999999999999</v>
+      </c>
+      <c r="U29" s="27">
+        <v>0</v>
+      </c>
+      <c r="V29" s="27">
+        <v>0</v>
+      </c>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="11"/>
+      <c r="AE29" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="AF29" s="11"/>
+      <c r="AG29" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH29" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI29" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ29" s="11"/>
+    </row>
+    <row r="30" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>1</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="27">
         <v>1.625</v>
       </c>
-      <c r="T29" s="27">
+      <c r="T30" s="27">
         <v>5.875</v>
       </c>
-      <c r="U29" s="27">
+      <c r="U30" s="27">
         <v>0.125</v>
       </c>
-      <c r="V29" s="27">
+      <c r="V30" s="27">
         <v>0.125</v>
       </c>
-      <c r="W29" s="11"/>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="10" t="s">
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="Z29" s="11"/>
-      <c r="AA29" s="11" t="s">
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="AB29" s="11" t="s">
+      <c r="AB30" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AC29" s="11" t="s">
+      <c r="AC30" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AD29" s="11"/>
-      <c r="AE29" s="11"/>
-      <c r="AF29" s="11"/>
-      <c r="AG29" s="11"/>
-      <c r="AH29" s="11"/>
-      <c r="AI29" s="11"/>
-      <c r="AJ29" s="11"/>
-    </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A30" s="31">
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="11"/>
+      <c r="AF30" s="11"/>
+      <c r="AG30" s="11"/>
+      <c r="AH30" s="11"/>
+      <c r="AI30" s="11"/>
+      <c r="AJ30" s="11"/>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A31" s="31">
         <v>1</v>
       </c>
-      <c r="B30" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="28" t="s">
+      <c r="B31" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="D31" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="30">
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="30">
         <v>1.079</v>
       </c>
-      <c r="T30" s="30">
+      <c r="T31" s="30">
         <v>2.456</v>
       </c>
-      <c r="U30" s="30">
-        <v>0</v>
-      </c>
-      <c r="V30" s="30">
-        <v>0</v>
-      </c>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
-      <c r="Y30" s="28" t="s">
+      <c r="U31" s="30">
+        <v>0</v>
+      </c>
+      <c r="V31" s="30">
+        <v>0</v>
+      </c>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="Z30" s="31"/>
-      <c r="AA30" s="31" t="s">
+      <c r="Z31" s="31"/>
+      <c r="AA31" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="AB30" s="31" t="s">
+      <c r="AB31" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="AC30" s="31" t="s">
+      <c r="AC31" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="AD30" s="31"/>
-      <c r="AE30" s="31"/>
-      <c r="AF30" s="31"/>
-      <c r="AG30" s="31"/>
-      <c r="AH30" s="31"/>
-      <c r="AI30" s="31"/>
-      <c r="AJ30" s="31"/>
-    </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A31" s="16">
-        <v>1</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="15">
-        <v>6.9370000000000003</v>
-      </c>
-      <c r="T31" s="15">
-        <v>7.0140000000000002</v>
-      </c>
-      <c r="U31" s="15">
-        <v>0</v>
-      </c>
-      <c r="V31" s="15">
-        <v>0</v>
-      </c>
-      <c r="W31" s="13"/>
-      <c r="X31" s="13"/>
-      <c r="Y31" s="13"/>
-      <c r="Z31" s="16"/>
-      <c r="AA31" s="16"/>
-      <c r="AB31" s="16"/>
-      <c r="AC31" s="16"/>
-      <c r="AD31" s="16"/>
-      <c r="AE31" s="16"/>
-      <c r="AF31" s="16"/>
-      <c r="AG31" s="16"/>
-      <c r="AH31" s="16"/>
-      <c r="AI31" s="16"/>
-      <c r="AJ31" s="16"/>
+      <c r="AD31" s="31"/>
+      <c r="AE31" s="31"/>
+      <c r="AF31" s="31"/>
+      <c r="AG31" s="31"/>
+      <c r="AH31" s="31"/>
+      <c r="AI31" s="31"/>
+      <c r="AJ31" s="31"/>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
@@ -4245,10 +4253,10 @@
         <v>0</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>125</v>
+        <v>224</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
@@ -4265,10 +4273,10 @@
       <c r="Q32" s="14"/>
       <c r="R32" s="16"/>
       <c r="S32" s="15">
-        <v>6.6159999999999997</v>
+        <v>6.9370000000000003</v>
       </c>
       <c r="T32" s="15">
-        <v>3.3580000000000001</v>
+        <v>7.0140000000000002</v>
       </c>
       <c r="U32" s="15">
         <v>0</v>
@@ -4299,10 +4307,10 @@
         <v>0</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
@@ -4319,16 +4327,16 @@
       <c r="Q33" s="14"/>
       <c r="R33" s="16"/>
       <c r="S33" s="15">
-        <v>0.25</v>
+        <v>6.6159999999999997</v>
       </c>
       <c r="T33" s="15">
-        <v>1.375</v>
+        <v>3.3580000000000001</v>
       </c>
       <c r="U33" s="15">
         <v>0</v>
       </c>
       <c r="V33" s="15">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="W33" s="13"/>
       <c r="X33" s="13"/>
@@ -4346,116 +4354,102 @@
       <c r="AJ33" s="16"/>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="16">
+        <v>1</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="T34" s="15">
+        <v>1.375</v>
+      </c>
+      <c r="U34" s="15">
+        <v>0</v>
+      </c>
+      <c r="V34" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="W34" s="13"/>
+      <c r="X34" s="13"/>
+      <c r="Y34" s="13"/>
+      <c r="Z34" s="16"/>
+      <c r="AA34" s="16"/>
+      <c r="AB34" s="16"/>
+      <c r="AC34" s="16"/>
+      <c r="AD34" s="16"/>
+      <c r="AE34" s="16"/>
+      <c r="AF34" s="16"/>
+      <c r="AG34" s="16"/>
+      <c r="AH34" s="16"/>
+      <c r="AI34" s="16"/>
+      <c r="AJ34" s="16"/>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A35" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B35" s="32" t="s">
         <v>267</v>
       </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32" t="s">
+      <c r="C35" s="32"/>
+      <c r="D35" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="34"/>
-      <c r="S34" s="35"/>
-      <c r="T34" s="35"/>
-      <c r="U34" s="35"/>
-      <c r="V34" s="35"/>
-      <c r="W34" s="32"/>
-      <c r="X34" s="32"/>
-      <c r="Y34" s="32"/>
-      <c r="Z34" s="34"/>
-      <c r="AA34" s="34"/>
-      <c r="AB34" s="34"/>
-      <c r="AC34" s="34"/>
-      <c r="AD34" s="34"/>
-      <c r="AE34" s="34"/>
-      <c r="AF34" s="34"/>
-      <c r="AG34" s="34"/>
-      <c r="AH34" s="34"/>
-      <c r="AI34" s="34"/>
-      <c r="AJ34" s="34"/>
-    </row>
-    <row r="35" spans="1:36" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="31">
-        <v>1</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="24"/>
-      <c r="S35" s="23">
-        <v>3.75</v>
-      </c>
-      <c r="T35" s="23">
-        <v>2.2810000000000001</v>
-      </c>
-      <c r="U35" s="23">
-        <v>0</v>
-      </c>
-      <c r="V35" s="23">
-        <v>0</v>
-      </c>
-      <c r="W35" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="X35" s="24"/>
-      <c r="Y35" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="Z35" s="24"/>
-      <c r="AA35" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB35" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC35" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD35" s="24"/>
-      <c r="AE35" s="24"/>
-      <c r="AF35" s="24"/>
-      <c r="AG35" s="24"/>
-      <c r="AH35" s="25"/>
-      <c r="AI35" s="24"/>
-      <c r="AJ35" s="24"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="34"/>
+      <c r="S35" s="35"/>
+      <c r="T35" s="35"/>
+      <c r="U35" s="35"/>
+      <c r="V35" s="35"/>
+      <c r="W35" s="32"/>
+      <c r="X35" s="32"/>
+      <c r="Y35" s="32"/>
+      <c r="Z35" s="34"/>
+      <c r="AA35" s="34"/>
+      <c r="AB35" s="34"/>
+      <c r="AC35" s="34"/>
+      <c r="AD35" s="34"/>
+      <c r="AE35" s="34"/>
+      <c r="AF35" s="34"/>
+      <c r="AG35" s="34"/>
+      <c r="AH35" s="34"/>
+      <c r="AI35" s="34"/>
+      <c r="AJ35" s="34"/>
     </row>
     <row r="36" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="31">
@@ -4465,13 +4459,13 @@
         <v>0</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="D36" s="21" t="s">
         <v>99</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
@@ -4484,15 +4478,15 @@
       <c r="N36" s="21"/>
       <c r="O36" s="21"/>
       <c r="P36" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q36" s="22"/>
       <c r="R36" s="24"/>
       <c r="S36" s="23">
-        <v>5.125</v>
+        <v>3.75</v>
       </c>
       <c r="T36" s="23">
-        <v>1.9059999999999999</v>
+        <v>2.2810000000000001</v>
       </c>
       <c r="U36" s="23">
         <v>0</v>
@@ -4525,75 +4519,75 @@
       <c r="AI36" s="24"/>
       <c r="AJ36" s="24"/>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A37" s="20">
+    <row r="37" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="31">
         <v>1</v>
       </c>
-      <c r="B37" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="D37" s="17" t="s">
+      <c r="B37" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="D37" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="E37" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="19">
-        <v>4.5949999999999998</v>
-      </c>
-      <c r="T37" s="19">
-        <v>3.1869999999999998</v>
-      </c>
-      <c r="U37" s="19">
-        <v>0</v>
-      </c>
-      <c r="V37" s="19">
-        <v>0</v>
-      </c>
-      <c r="W37" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="X37" s="20"/>
-      <c r="Y37" s="17" t="s">
+      <c r="E37" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="24"/>
+      <c r="S37" s="23">
+        <v>5.125</v>
+      </c>
+      <c r="T37" s="23">
+        <v>1.9059999999999999</v>
+      </c>
+      <c r="U37" s="23">
+        <v>0</v>
+      </c>
+      <c r="V37" s="23">
+        <v>0</v>
+      </c>
+      <c r="W37" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="X37" s="24"/>
+      <c r="Y37" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="Z37" s="20"/>
-      <c r="AA37" s="20" t="s">
+      <c r="Z37" s="24"/>
+      <c r="AA37" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="AB37" s="20" t="s">
+      <c r="AB37" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="AC37" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD37" s="20"/>
-      <c r="AE37" s="20"/>
-      <c r="AF37" s="20"/>
-      <c r="AG37" s="20"/>
-      <c r="AH37" s="20"/>
-      <c r="AI37" s="20"/>
-      <c r="AJ37" s="20"/>
-    </row>
-    <row r="38" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="AC37" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD37" s="24"/>
+      <c r="AE37" s="24"/>
+      <c r="AF37" s="24"/>
+      <c r="AG37" s="24"/>
+      <c r="AH37" s="25"/>
+      <c r="AI37" s="24"/>
+      <c r="AJ37" s="24"/>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" s="20">
         <v>1</v>
       </c>
@@ -4601,13 +4595,13 @@
         <v>0</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="D38" s="17" t="s">
         <v>99</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
@@ -4620,15 +4614,15 @@
       <c r="N38" s="17"/>
       <c r="O38" s="17"/>
       <c r="P38" s="18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q38" s="18"/>
       <c r="R38" s="20"/>
       <c r="S38" s="19">
-        <v>3.72</v>
+        <v>4.5949999999999998</v>
       </c>
       <c r="T38" s="19">
-        <v>3.875</v>
+        <v>3.1869999999999998</v>
       </c>
       <c r="U38" s="19">
         <v>0</v>
@@ -4669,13 +4663,13 @@
         <v>0</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D39" s="17" t="s">
         <v>99</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
@@ -4688,15 +4682,15 @@
       <c r="N39" s="17"/>
       <c r="O39" s="17"/>
       <c r="P39" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q39" s="18"/>
       <c r="R39" s="20"/>
       <c r="S39" s="19">
-        <v>5.5620000000000003</v>
+        <v>3.72</v>
       </c>
       <c r="T39" s="19">
-        <v>2.75</v>
+        <v>3.875</v>
       </c>
       <c r="U39" s="19">
         <v>0</v>
@@ -4729,75 +4723,75 @@
       <c r="AI39" s="20"/>
       <c r="AJ39" s="20"/>
     </row>
-    <row r="40" spans="1:36" s="68" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="64">
+    <row r="40" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="20">
         <v>1</v>
       </c>
-      <c r="B40" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" s="65" t="s">
-        <v>229</v>
-      </c>
-      <c r="D40" s="65" t="s">
+      <c r="B40" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="D40" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="E40" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="F40" s="65"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="65"/>
-      <c r="K40" s="65"/>
-      <c r="L40" s="65"/>
-      <c r="M40" s="65"/>
-      <c r="N40" s="65"/>
-      <c r="O40" s="65"/>
-      <c r="P40" s="66" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q40" s="66"/>
-      <c r="R40" s="64"/>
-      <c r="S40" s="67">
-        <v>3.72</v>
-      </c>
-      <c r="T40" s="67">
-        <v>4.875</v>
-      </c>
-      <c r="U40" s="67">
-        <v>0</v>
-      </c>
-      <c r="V40" s="67">
-        <v>0</v>
-      </c>
-      <c r="W40" s="64" t="s">
+      <c r="E40" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="19">
+        <v>5.5620000000000003</v>
+      </c>
+      <c r="T40" s="19">
+        <v>2.75</v>
+      </c>
+      <c r="U40" s="19">
+        <v>0</v>
+      </c>
+      <c r="V40" s="19">
+        <v>0</v>
+      </c>
+      <c r="W40" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="X40" s="64"/>
-      <c r="Y40" s="65" t="s">
+      <c r="X40" s="20"/>
+      <c r="Y40" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="Z40" s="64"/>
-      <c r="AA40" s="64" t="s">
+      <c r="Z40" s="20"/>
+      <c r="AA40" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="AB40" s="64" t="s">
+      <c r="AB40" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="AC40" s="64" t="s">
+      <c r="AC40" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="AD40" s="64"/>
-      <c r="AE40" s="64"/>
-      <c r="AF40" s="64"/>
-      <c r="AG40" s="64"/>
-      <c r="AH40" s="64"/>
-      <c r="AI40" s="64"/>
-      <c r="AJ40" s="64"/>
-    </row>
-    <row r="41" spans="1:36" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD40" s="20"/>
+      <c r="AE40" s="20"/>
+      <c r="AF40" s="20"/>
+      <c r="AG40" s="20"/>
+      <c r="AH40" s="20"/>
+      <c r="AI40" s="20"/>
+      <c r="AJ40" s="20"/>
+    </row>
+    <row r="41" spans="1:36" s="68" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="64">
         <v>1</v>
       </c>
@@ -4805,13 +4799,13 @@
         <v>0</v>
       </c>
       <c r="C41" s="65" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="D41" s="65" t="s">
         <v>99</v>
       </c>
       <c r="E41" s="65" t="s">
-        <v>265</v>
+        <v>52</v>
       </c>
       <c r="F41" s="65"/>
       <c r="G41" s="65"/>
@@ -4823,14 +4817,16 @@
       <c r="M41" s="65"/>
       <c r="N41" s="65"/>
       <c r="O41" s="65"/>
-      <c r="P41" s="66"/>
+      <c r="P41" s="66" t="s">
+        <v>29</v>
+      </c>
       <c r="Q41" s="66"/>
       <c r="R41" s="64"/>
       <c r="S41" s="67">
-        <v>5.75</v>
+        <v>3.72</v>
       </c>
       <c r="T41" s="67">
-        <v>3.593</v>
+        <v>4.875</v>
       </c>
       <c r="U41" s="67">
         <v>0</v>
@@ -4863,83 +4859,73 @@
       <c r="AI41" s="64"/>
       <c r="AJ41" s="64"/>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A42" s="20">
+    <row r="42" spans="1:36" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="64">
         <v>1</v>
       </c>
-      <c r="B42" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="D42" s="17" t="s">
+      <c r="B42" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="65" t="s">
+        <v>266</v>
+      </c>
+      <c r="D42" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="E42" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q42" s="18"/>
-      <c r="R42" s="20"/>
-      <c r="S42" s="19">
-        <v>5</v>
-      </c>
-      <c r="T42" s="19">
-        <v>4.5</v>
-      </c>
-      <c r="U42" s="19">
-        <v>0</v>
-      </c>
-      <c r="V42" s="19">
-        <v>0</v>
-      </c>
-      <c r="W42" s="20" t="s">
+      <c r="E42" s="65" t="s">
+        <v>265</v>
+      </c>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="65"/>
+      <c r="K42" s="65"/>
+      <c r="L42" s="65"/>
+      <c r="M42" s="65"/>
+      <c r="N42" s="65"/>
+      <c r="O42" s="65"/>
+      <c r="P42" s="66"/>
+      <c r="Q42" s="66"/>
+      <c r="R42" s="64"/>
+      <c r="S42" s="67">
+        <v>5.75</v>
+      </c>
+      <c r="T42" s="67">
+        <v>3.593</v>
+      </c>
+      <c r="U42" s="67">
+        <v>0</v>
+      </c>
+      <c r="V42" s="67">
+        <v>0</v>
+      </c>
+      <c r="W42" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="X42" s="20"/>
-      <c r="Y42" s="17" t="s">
+      <c r="X42" s="64"/>
+      <c r="Y42" s="65" t="s">
         <v>201</v>
       </c>
-      <c r="Z42" s="20"/>
-      <c r="AA42" s="20" t="s">
+      <c r="Z42" s="64"/>
+      <c r="AA42" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="AB42" s="20" t="s">
+      <c r="AB42" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="AC42" s="20" t="s">
+      <c r="AC42" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="AD42" s="20"/>
-      <c r="AE42" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="AF42" s="20"/>
-      <c r="AG42" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="AH42" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI42" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ42" s="20"/>
-    </row>
-    <row r="43" spans="1:36" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD42" s="64"/>
+      <c r="AE42" s="64"/>
+      <c r="AF42" s="64"/>
+      <c r="AG42" s="64"/>
+      <c r="AH42" s="64"/>
+      <c r="AI42" s="64"/>
+      <c r="AJ42" s="64"/>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" s="20">
         <v>1</v>
       </c>
@@ -4947,13 +4933,13 @@
         <v>0</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
@@ -4965,14 +4951,16 @@
       <c r="M43" s="17"/>
       <c r="N43" s="17"/>
       <c r="O43" s="17"/>
-      <c r="P43" s="18"/>
+      <c r="P43" s="18" t="s">
+        <v>27</v>
+      </c>
       <c r="Q43" s="18"/>
       <c r="R43" s="20"/>
       <c r="S43" s="19">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="T43" s="19">
-        <v>5.1829999999999998</v>
+        <v>4.5</v>
       </c>
       <c r="U43" s="19">
         <v>0</v>
@@ -4984,86 +4972,92 @@
         <v>59</v>
       </c>
       <c r="X43" s="20"/>
-      <c r="Y43" s="17"/>
+      <c r="Y43" s="17" t="s">
+        <v>201</v>
+      </c>
       <c r="Z43" s="20"/>
-      <c r="AA43" s="20"/>
-      <c r="AB43" s="20"/>
-      <c r="AC43" s="20"/>
+      <c r="AA43" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB43" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC43" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="AD43" s="20"/>
-      <c r="AE43" s="20"/>
+      <c r="AE43" s="20" t="s">
+        <v>231</v>
+      </c>
       <c r="AF43" s="20"/>
-      <c r="AG43" s="20"/>
-      <c r="AH43" s="20"/>
-      <c r="AI43" s="20"/>
+      <c r="AG43" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH43" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI43" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="AJ43" s="20"/>
     </row>
-    <row r="44" spans="1:36" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="9">
+    <row r="44" spans="1:36" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="20">
         <v>1</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="9"/>
-      <c r="S44" s="8">
-        <v>3.6869999999999998</v>
-      </c>
-      <c r="T44" s="8">
-        <v>5.875</v>
-      </c>
-      <c r="U44" s="8">
-        <v>0</v>
-      </c>
-      <c r="V44" s="8">
-        <v>0</v>
-      </c>
-      <c r="W44" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="X44" s="9"/>
-      <c r="Y44" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="Z44" s="9"/>
-      <c r="AA44" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB44" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC44" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD44" s="9"/>
-      <c r="AE44" s="9"/>
-      <c r="AF44" s="9"/>
-      <c r="AG44" s="9"/>
-      <c r="AH44" s="9"/>
-      <c r="AI44" s="9"/>
-      <c r="AJ44" s="9"/>
+      <c r="B44" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="18"/>
+      <c r="Q44" s="18"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="19">
+        <v>6.5</v>
+      </c>
+      <c r="T44" s="19">
+        <v>5.1829999999999998</v>
+      </c>
+      <c r="U44" s="19">
+        <v>0</v>
+      </c>
+      <c r="V44" s="19">
+        <v>0</v>
+      </c>
+      <c r="W44" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="20"/>
+      <c r="Y44" s="17"/>
+      <c r="Z44" s="20"/>
+      <c r="AA44" s="20"/>
+      <c r="AB44" s="20"/>
+      <c r="AC44" s="20"/>
+      <c r="AD44" s="20"/>
+      <c r="AE44" s="20"/>
+      <c r="AF44" s="20"/>
+      <c r="AG44" s="20"/>
+      <c r="AH44" s="20"/>
+      <c r="AI44" s="20"/>
+      <c r="AJ44" s="20"/>
     </row>
     <row r="45" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
@@ -5073,18 +5067,16 @@
         <v>0</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>99</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F45" s="6"/>
-      <c r="G45" s="6">
-        <v>8</v>
-      </c>
+      <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
@@ -5094,15 +5086,15 @@
       <c r="N45" s="6"/>
       <c r="O45" s="6"/>
       <c r="P45" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q45" s="7"/>
       <c r="R45" s="9"/>
       <c r="S45" s="8">
-        <v>5.718</v>
+        <v>3.6869999999999998</v>
       </c>
       <c r="T45" s="8">
-        <v>5.5309999999999997</v>
+        <v>5.875</v>
       </c>
       <c r="U45" s="8">
         <v>0</v>
@@ -5135,7 +5127,7 @@
       <c r="AI45" s="9"/>
       <c r="AJ45" s="9"/>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
         <v>1</v>
       </c>
@@ -5143,16 +5135,18 @@
         <v>0</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>99</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
+      <c r="G46" s="6">
+        <v>8</v>
+      </c>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
@@ -5162,15 +5156,15 @@
       <c r="N46" s="6"/>
       <c r="O46" s="6"/>
       <c r="P46" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q46" s="7"/>
       <c r="R46" s="9"/>
       <c r="S46" s="8">
-        <v>4.9370000000000003</v>
+        <v>5.718</v>
       </c>
       <c r="T46" s="8">
-        <v>6.53</v>
+        <v>5.5309999999999997</v>
       </c>
       <c r="U46" s="8">
         <v>0</v>
@@ -5203,73 +5197,73 @@
       <c r="AI46" s="9"/>
       <c r="AJ46" s="9"/>
     </row>
-    <row r="47" spans="1:36" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="16">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
         <v>1</v>
       </c>
-      <c r="B47" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="D47" s="13" t="s">
+      <c r="B47" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="E47" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="13"/>
-      <c r="P47" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q47" s="14"/>
-      <c r="R47" s="16"/>
-      <c r="S47" s="15">
-        <v>3.84</v>
-      </c>
-      <c r="T47" s="15">
-        <v>7</v>
-      </c>
-      <c r="U47" s="15">
-        <v>0</v>
-      </c>
-      <c r="V47" s="15">
-        <v>0</v>
-      </c>
-      <c r="W47" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="X47" s="48"/>
-      <c r="Y47" s="13" t="s">
+      <c r="E47" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="8">
+        <v>4.9370000000000003</v>
+      </c>
+      <c r="T47" s="8">
+        <v>6.53</v>
+      </c>
+      <c r="U47" s="8">
+        <v>0</v>
+      </c>
+      <c r="V47" s="8">
+        <v>0</v>
+      </c>
+      <c r="W47" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="X47" s="9"/>
+      <c r="Y47" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="Z47" s="16"/>
-      <c r="AA47" s="16" t="s">
+      <c r="Z47" s="9"/>
+      <c r="AA47" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="AB47" s="16" t="s">
+      <c r="AB47" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AC47" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD47" s="16"/>
-      <c r="AE47" s="16"/>
-      <c r="AF47" s="16"/>
-      <c r="AG47" s="16"/>
-      <c r="AH47" s="16"/>
-      <c r="AI47" s="16"/>
-      <c r="AJ47" s="16"/>
+      <c r="AC47" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD47" s="9"/>
+      <c r="AE47" s="9"/>
+      <c r="AF47" s="9"/>
+      <c r="AG47" s="9"/>
+      <c r="AH47" s="9"/>
+      <c r="AI47" s="9"/>
+      <c r="AJ47" s="9"/>
     </row>
     <row r="48" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
@@ -5279,13 +5273,13 @@
         <v>0</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D48" s="13" t="s">
         <v>99</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
@@ -5303,10 +5297,10 @@
       <c r="Q48" s="14"/>
       <c r="R48" s="16"/>
       <c r="S48" s="15">
-        <v>3.8580000000000001</v>
+        <v>3.84</v>
       </c>
       <c r="T48" s="15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U48" s="15">
         <v>0</v>
@@ -5314,10 +5308,10 @@
       <c r="V48" s="15">
         <v>0</v>
       </c>
-      <c r="W48" s="16" t="s">
+      <c r="W48" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="X48" s="16"/>
+      <c r="X48" s="48"/>
       <c r="Y48" s="13" t="s">
         <v>201</v>
       </c>
@@ -5332,24 +5326,14 @@
         <v>57</v>
       </c>
       <c r="AD48" s="16"/>
-      <c r="AE48" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="AF48" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG48" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH48" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI48" s="16" t="s">
-        <v>179</v>
-      </c>
+      <c r="AE48" s="16"/>
+      <c r="AF48" s="16"/>
+      <c r="AG48" s="16"/>
+      <c r="AH48" s="16"/>
+      <c r="AI48" s="16"/>
       <c r="AJ48" s="16"/>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
         <v>1</v>
       </c>
@@ -5357,13 +5341,13 @@
         <v>0</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D49" s="13" t="s">
         <v>99</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
@@ -5376,15 +5360,15 @@
       <c r="N49" s="13"/>
       <c r="O49" s="13"/>
       <c r="P49" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q49" s="14"/>
       <c r="R49" s="16"/>
       <c r="S49" s="15">
-        <v>5.0919999999999996</v>
+        <v>3.8580000000000001</v>
       </c>
       <c r="T49" s="15">
-        <v>7.593</v>
+        <v>8</v>
       </c>
       <c r="U49" s="15">
         <v>0</v>
@@ -5410,22 +5394,24 @@
         <v>57</v>
       </c>
       <c r="AD49" s="16"/>
-      <c r="AE49" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="AF49" s="16"/>
+      <c r="AE49" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="AF49" s="16" t="s">
+        <v>61</v>
+      </c>
       <c r="AG49" s="16" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AH49" s="16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AI49" s="16" t="s">
-        <v>57</v>
+        <v>179</v>
       </c>
       <c r="AJ49" s="16"/>
     </row>
-    <row r="50" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
         <v>1</v>
       </c>
@@ -5433,13 +5419,13 @@
         <v>0</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
@@ -5451,14 +5437,16 @@
       <c r="M50" s="13"/>
       <c r="N50" s="13"/>
       <c r="O50" s="13"/>
-      <c r="P50" s="14"/>
+      <c r="P50" s="14" t="s">
+        <v>38</v>
+      </c>
       <c r="Q50" s="14"/>
       <c r="R50" s="16"/>
       <c r="S50" s="15">
-        <v>7.2709999999999999</v>
+        <v>5.0919999999999996</v>
       </c>
       <c r="T50" s="15">
-        <v>8.5</v>
+        <v>7.593</v>
       </c>
       <c r="U50" s="15">
         <v>0</v>
@@ -5470,14 +5458,22 @@
         <v>60</v>
       </c>
       <c r="X50" s="16"/>
-      <c r="Y50" s="13"/>
+      <c r="Y50" s="13" t="s">
+        <v>201</v>
+      </c>
       <c r="Z50" s="16"/>
-      <c r="AA50" s="16"/>
-      <c r="AB50" s="16"/>
-      <c r="AC50" s="16"/>
+      <c r="AA50" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB50" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC50" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="AD50" s="16"/>
       <c r="AE50" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF50" s="16"/>
       <c r="AG50" s="16" t="s">
@@ -5491,7 +5487,7 @@
       </c>
       <c r="AJ50" s="16"/>
     </row>
-    <row r="51" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
         <v>1</v>
       </c>
@@ -5499,13 +5495,13 @@
         <v>0</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
@@ -5517,16 +5513,14 @@
       <c r="M51" s="13"/>
       <c r="N51" s="13"/>
       <c r="O51" s="13"/>
-      <c r="P51" s="14" t="s">
-        <v>41</v>
-      </c>
+      <c r="P51" s="14"/>
       <c r="Q51" s="14"/>
       <c r="R51" s="16"/>
       <c r="S51" s="15">
-        <v>3.8420000000000001</v>
+        <v>7.2709999999999999</v>
       </c>
       <c r="T51" s="15">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="U51" s="15">
         <v>0</v>
@@ -5534,32 +5528,32 @@
       <c r="V51" s="15">
         <v>0</v>
       </c>
-      <c r="W51" s="15" t="s">
+      <c r="W51" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="X51" s="48"/>
-      <c r="Y51" s="13" t="s">
-        <v>201</v>
-      </c>
+      <c r="X51" s="16"/>
+      <c r="Y51" s="13"/>
       <c r="Z51" s="16"/>
-      <c r="AA51" s="16" t="s">
+      <c r="AA51" s="16"/>
+      <c r="AB51" s="16"/>
+      <c r="AC51" s="16"/>
+      <c r="AD51" s="16"/>
+      <c r="AE51" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="AF51" s="16"/>
+      <c r="AG51" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="AB51" s="16" t="s">
+      <c r="AH51" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="AC51" s="16" t="s">
+      <c r="AI51" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD51" s="16"/>
-      <c r="AE51" s="13"/>
-      <c r="AF51" s="16"/>
-      <c r="AG51" s="16"/>
-      <c r="AH51" s="16"/>
-      <c r="AI51" s="16"/>
       <c r="AJ51" s="16"/>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
         <v>1</v>
       </c>
@@ -5567,13 +5561,13 @@
         <v>0</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
@@ -5585,14 +5579,16 @@
       <c r="M52" s="13"/>
       <c r="N52" s="13"/>
       <c r="O52" s="13"/>
-      <c r="P52" s="14"/>
+      <c r="P52" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="Q52" s="14"/>
       <c r="R52" s="16"/>
       <c r="S52" s="15">
-        <v>5.25</v>
+        <v>3.8420000000000001</v>
       </c>
       <c r="T52" s="15">
-        <v>9.7149999999999999</v>
+        <v>9.25</v>
       </c>
       <c r="U52" s="15">
         <v>0</v>
@@ -5600,27 +5596,29 @@
       <c r="V52" s="15">
         <v>0</v>
       </c>
-      <c r="W52" s="13"/>
-      <c r="X52" s="13"/>
-      <c r="Y52" s="13"/>
+      <c r="W52" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="X52" s="48"/>
+      <c r="Y52" s="13" t="s">
+        <v>201</v>
+      </c>
       <c r="Z52" s="16"/>
-      <c r="AA52" s="16"/>
-      <c r="AB52" s="16"/>
-      <c r="AC52" s="16"/>
+      <c r="AA52" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB52" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC52" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="AD52" s="16"/>
-      <c r="AE52" s="16" t="s">
-        <v>239</v>
-      </c>
+      <c r="AE52" s="13"/>
       <c r="AF52" s="16"/>
-      <c r="AG52" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="AH52" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI52" s="16" t="s">
-        <v>57</v>
-      </c>
+      <c r="AG52" s="16"/>
+      <c r="AH52" s="16"/>
+      <c r="AI52" s="16"/>
       <c r="AJ52" s="16"/>
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.25">
@@ -5631,13 +5629,13 @@
         <v>0</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D53" s="13" t="s">
         <v>119</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F53" s="13"/>
       <c r="G53" s="13"/>
@@ -5653,10 +5651,10 @@
       <c r="Q53" s="14"/>
       <c r="R53" s="16"/>
       <c r="S53" s="15">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="T53" s="15">
-        <v>9.2149999999999999</v>
+        <v>9.7149999999999999</v>
       </c>
       <c r="U53" s="15">
         <v>0</v>
@@ -5688,7 +5686,68 @@
       <c r="AJ53" s="16"/>
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="AE54" s="5"/>
+      <c r="A54" s="16">
+        <v>1</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="14"/>
+      <c r="R54" s="16"/>
+      <c r="S54" s="15">
+        <v>6</v>
+      </c>
+      <c r="T54" s="15">
+        <v>9.2149999999999999</v>
+      </c>
+      <c r="U54" s="15">
+        <v>0</v>
+      </c>
+      <c r="V54" s="15">
+        <v>0</v>
+      </c>
+      <c r="W54" s="13"/>
+      <c r="X54" s="13"/>
+      <c r="Y54" s="13"/>
+      <c r="Z54" s="16"/>
+      <c r="AA54" s="16"/>
+      <c r="AB54" s="16"/>
+      <c r="AC54" s="16"/>
+      <c r="AD54" s="16"/>
+      <c r="AE54" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="AF54" s="16"/>
+      <c r="AG54" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH54" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI54" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ54" s="16"/>
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="AE55" s="5"/>
@@ -5696,9 +5755,12 @@
     <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="AE56" s="5"/>
     </row>
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AE57" s="5"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="X2:X53" xr:uid="{72614377-EAF6-442A-A539-68B982F2B5F2}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="X2:X54" xr:uid="{72614377-EAF6-442A-A539-68B982F2B5F2}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5710,61 +5772,61 @@
           <x14:formula1>
             <xm:f>Tables!$E$2:$E$8</xm:f>
           </x14:formula1>
-          <xm:sqref>W54:X56</xm:sqref>
+          <xm:sqref>W55:X57</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{A79951A8-E5EC-4EF0-9D7D-4E694E3DB129}">
           <x14:formula1>
             <xm:f>Tables!$A$2:$A$10</xm:f>
           </x14:formula1>
-          <xm:sqref>AC54:AD59 AI54:AJ59</xm:sqref>
+          <xm:sqref>AC55:AD60 AI55:AJ60</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{84DDF0C9-6F1B-446E-8995-2373E65B88E2}">
           <x14:formula1>
             <xm:f>Tables!$C$2:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>AB7:AB9 AH7:AH9 AH11:AH53 AB11:AB53</xm:sqref>
+          <xm:sqref>AB7:AB10 AH7:AH10 AH12:AH54 AB12:AB54</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{728BDDBA-BE5E-4DCD-B5BE-37BF352A6ED1}">
           <x14:formula1>
             <xm:f>Tables!$G$2:$G$6</xm:f>
           </x14:formula1>
-          <xm:sqref>AA7:AA9 AG7:AG9 AG11:AG53 AA11:AA53</xm:sqref>
+          <xm:sqref>AA7:AA10 AG7:AG10 AG12:AG54 AA12:AA54</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{087A4C05-153C-4972-BDC1-0B25550B4511}">
           <x14:formula1>
             <xm:f>Tables!$E$2:$E$16</xm:f>
           </x14:formula1>
-          <xm:sqref>G7:G9 G11:G53</xm:sqref>
+          <xm:sqref>G7:G10 G12:G54</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{96759607-ABDD-4305-A45D-E9D7641B9A39}">
           <x14:formula1>
             <xm:f>Tables!$I$2:$I$4</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F53</xm:sqref>
+          <xm:sqref>F2:F54</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{180FF12C-34B4-4E22-B05E-065A6AD844A8}">
           <x14:formula1>
             <xm:f>Tables!$A$2:$A$37</xm:f>
           </x14:formula1>
-          <xm:sqref>AI2:AI53 W2:W53 AC2:AC53</xm:sqref>
+          <xm:sqref>AC2:AC54 W2:W54 AI2:AI54</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{D798FF95-CF25-4075-93E1-F73A3025A1E3}">
           <x14:formula1>
             <xm:f>Tables!$M$2:$M$8</xm:f>
           </x14:formula1>
-          <xm:sqref>AD2:AD53 AJ2:AJ53</xm:sqref>
+          <xm:sqref>AJ2:AJ54 AD2:AD54</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{E43EDD1D-4913-46FB-AA42-B37AF639BEC9}">
           <x14:formula1>
             <xm:f>Tables!$O$2:$O$54</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D53</xm:sqref>
+          <xm:sqref>D2:D54</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{FF3600D5-37C2-469C-A18A-037C0421255B}">
           <x14:formula1>
             <xm:f>Tables!$K$2:$K$7</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B53</xm:sqref>
+          <xm:sqref>B2:B54</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Data/ScriptData/OC_ArchitectBlueprintingData_Templage2.xlsx
+++ b/Data/ScriptData/OC_ArchitectBlueprintingData_Templage2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Omnicell\Workspace\winApps\OmnicellBlueprintingTool\Data\ScriptData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0799438-903B-4EAD-9EDE-BA26AA6204D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C5648E-9C6E-43F3-AB94-EAC5927AC285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5010" yWindow="6390" windowWidth="23535" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4875" yWindow="2565" windowWidth="23535" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VisioData" sheetId="1" r:id="rId1"/>
@@ -2266,8 +2266,8 @@
   <dimension ref="A1:AJ57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2810,7 +2810,7 @@
         <v>9.4049999999999994</v>
       </c>
       <c r="U9" s="15">
-        <v>1.875</v>
+        <v>2.7</v>
       </c>
       <c r="V9" s="15">
         <v>6.5</v>

--- a/Data/ScriptData/OC_ArchitectBlueprintingData_Templage2.xlsx
+++ b/Data/ScriptData/OC_ArchitectBlueprintingData_Templage2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Omnicell\Workspace\winApps\OmnicellBlueprintingTool\Data\ScriptData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Omnicell_Blueprinting_Tool\Data\ScriptData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C5648E-9C6E-43F3-AB94-EAC5927AC285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987A2BB5-F798-499F-9787-0C9664F4A40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4875" yWindow="2565" windowWidth="23535" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="6885" windowWidth="25665" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VisioData" sheetId="1" r:id="rId1"/>
@@ -230,7 +230,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="271">
   <si>
     <t>Shape</t>
   </si>
@@ -1091,6 +1091,10 @@
   </si>
   <si>
     <t>Network</t>
+  </si>
+  <si>
+    <t>Test OC_Footer
+add account information here</t>
   </si>
 </sst>
 </file>
@@ -2266,8 +2270,8 @@
   <dimension ref="A1:AJ57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W12" sqref="W12"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F35:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4353,7 +4357,7 @@
       <c r="AI33" s="16"/>
       <c r="AJ33" s="16"/>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <v>1</v>
       </c>
@@ -4366,7 +4370,9 @@
       <c r="D34" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="E34" s="13"/>
+      <c r="E34" s="13" t="s">
+        <v>270</v>
+      </c>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
@@ -4387,10 +4393,10 @@
         <v>1.375</v>
       </c>
       <c r="U34" s="15">
-        <v>0</v>
+        <v>7.99</v>
       </c>
       <c r="V34" s="15">
-        <v>0.75</v>
+        <v>1.375</v>
       </c>
       <c r="W34" s="13"/>
       <c r="X34" s="13"/>

--- a/Data/ScriptData/OC_ArchitectBlueprintingData_Templage2.xlsx
+++ b/Data/ScriptData/OC_ArchitectBlueprintingData_Templage2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Omnicell_Blueprinting_Tool\Data\ScriptData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Omnicell\Workspace\winApps\OmnicellBlueprintingTool\Data\ScriptData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987A2BB5-F798-499F-9787-0C9664F4A40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DD6010-A33A-4964-8875-9D6BC6BB12C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="6885" windowWidth="25665" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="6390" windowWidth="25665" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VisioData" sheetId="1" r:id="rId1"/>
@@ -230,7 +230,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="271">
   <si>
     <t>Shape</t>
   </si>
@@ -2270,8 +2270,8 @@
   <dimension ref="A1:AJ57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F35:F36"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W51" sqref="W51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2870,7 +2870,7 @@
         <v>1.5</v>
       </c>
       <c r="U10" s="15">
-        <v>7</v>
+        <v>7.875</v>
       </c>
       <c r="V10" s="15">
         <v>0</v>
@@ -2979,11 +2979,19 @@
       </c>
       <c r="W12" s="13"/>
       <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
+      <c r="Y12" s="13" t="s">
+        <v>201</v>
+      </c>
       <c r="Z12" s="16"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="16"/>
+      <c r="AA12" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB12" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC12" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="AD12" s="16"/>
       <c r="AE12" s="16"/>
       <c r="AF12" s="16"/>
@@ -3106,7 +3114,7 @@
         <v>104</v>
       </c>
       <c r="AB14" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC14" s="11" t="s">
         <v>57</v>
@@ -3172,7 +3180,7 @@
         <v>104</v>
       </c>
       <c r="AB15" s="58" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC15" s="58" t="s">
         <v>57</v>
@@ -3238,7 +3246,7 @@
         <v>104</v>
       </c>
       <c r="AB16" s="58" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC16" s="58" t="s">
         <v>57</v>
@@ -4159,10 +4167,10 @@
         <v>5.875</v>
       </c>
       <c r="U30" s="27">
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="V30" s="27">
-        <v>0.125</v>
+        <v>0.6</v>
       </c>
       <c r="W30" s="11"/>
       <c r="X30" s="11"/>
@@ -5413,7 +5421,7 @@
         <v>66</v>
       </c>
       <c r="AI49" s="16" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="AJ49" s="16"/>
     </row>
@@ -5523,10 +5531,10 @@
       <c r="Q51" s="14"/>
       <c r="R51" s="16"/>
       <c r="S51" s="15">
-        <v>7.2709999999999999</v>
+        <v>6.75</v>
       </c>
       <c r="T51" s="15">
-        <v>8.5</v>
+        <v>8.4890000000000008</v>
       </c>
       <c r="U51" s="15">
         <v>0</v>
